--- a/mbs-perturbation/greedy/elm/nearmiss/greedy_elm_rbf_linf_nearmiss_results.xlsx
+++ b/mbs-perturbation/greedy/elm/nearmiss/greedy_elm_rbf_linf_nearmiss_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
   </sheetData>
